--- a/biology/Zoologie/Borophagina/Borophagina.xlsx
+++ b/biology/Zoologie/Borophagina/Borophagina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Borophagina sont une sous-tribu fossile des borophaginés, un groupe de canidés. Ils ont vécu dans une grande partie de l'l’Amérique du Nord du Miocène au  Pliocène inférieur (étage Zancléen), il y a environ entre 20,6 et 3,6 Ma (millions d'années), et ont existé pendant environ 17 millions d’années[1]. 
-Comme certains autres borophagiens, il s'agissait de canidés à la face courte et aux mâchoires lourdes[2],[3] bien que le groupe comprenne à la fois des espèces omnivores et hypercarnivores[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Borophagina sont une sous-tribu fossile des borophaginés, un groupe de canidés. Ils ont vécu dans une grande partie de l'l’Amérique du Nord du Miocène au  Pliocène inférieur (étage Zancléen), il y a environ entre 20,6 et 3,6 Ma (millions d'années), et ont existé pendant environ 17 millions d’années. 
+Comme certains autres borophagiens, il s'agissait de canidés à la face courte et aux mâchoires lourdes, bien que le groupe comprenne à la fois des espèces omnivores et hypercarnivores.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (29 avril 2021)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (29 avril 2021) :
 † Borophagus Cope, 1892
 † Carpocyon Webb, 1969
 † Epicyon Leidy, 1858
@@ -547,7 +561,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Xiaoming Wang, Richard H. Tedford et Beryl E. Taylor, « Phylogenetic systematics of the Borophaginae (Carnivora, Canidae) », Bulletin of the American Museum of Natural History, New York, Musée américain d'histoire naturelle, vol. 243,‎ 1999, p. 1-391 (ISSN 0003-0090 et 1937-3546, OCLC 1287364, lire en ligne)</t>
         </is>
